--- a/network analysis sandbox/data/edges_tech.xlsx
+++ b/network analysis sandbox/data/edges_tech.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -371,202 +371,418 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="B15">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16">
         <v>42</v>
-      </c>
-      <c r="B16">
-        <v>12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="B17">
-        <v>13</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
+        <v>63</v>
+      </c>
+      <c r="B22">
         <v>48</v>
-      </c>
-      <c r="B22">
-        <v>14</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B23">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="B24">
-        <v>14</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>16</v>
+      </c>
+      <c r="B27">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>16</v>
+      </c>
+      <c r="B28">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>16</v>
+      </c>
+      <c r="B29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>17</v>
+      </c>
+      <c r="B30">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>18</v>
+      </c>
+      <c r="B31">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>18</v>
+      </c>
+      <c r="B32">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>19</v>
+      </c>
+      <c r="B33">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>20</v>
+      </c>
+      <c r="B34">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>21</v>
+      </c>
+      <c r="B35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>21</v>
+      </c>
+      <c r="B36">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>23</v>
+      </c>
+      <c r="B37">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>24</v>
+      </c>
+      <c r="B38">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>24</v>
+      </c>
+      <c r="B39">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>25</v>
+      </c>
+      <c r="B40">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>26</v>
+      </c>
+      <c r="B41">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>26</v>
+      </c>
+      <c r="B42">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>26</v>
+      </c>
+      <c r="B43">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>27</v>
+      </c>
+      <c r="B44">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>27</v>
+      </c>
+      <c r="B45">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>48</v>
+      </c>
+      <c r="B46">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>48</v>
+      </c>
+      <c r="B47">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>28</v>
+      </c>
+      <c r="B48">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>28</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>28</v>
+      </c>
+      <c r="B50">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>29</v>
+      </c>
+      <c r="B51">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>29</v>
+      </c>
+      <c r="B52">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>29</v>
+      </c>
+      <c r="B53">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
